--- a/Experiments/230503/data/compiled.xlsx
+++ b/Experiments/230503/data/compiled.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230503/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014D319A-C434-7A4A-8BD5-92752D2D6E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="28120" windowHeight="16340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="510-ch2thf" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,29 @@
     <sheet name="pyr" sheetId="5" r:id="rId5"/>
     <sheet name="glycine" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">mal!$I$1:$I$5</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">mal!$J$1:$J$5</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="278">
   <si>
     <t>10x_std_1</t>
   </si>
@@ -847,13 +870,19 @@
   </si>
   <si>
     <t>942.95</t>
+  </si>
+  <si>
+    <t>Y = 3116110*X + 180994</t>
+  </si>
+  <si>
+    <t>1/31 std</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,6 +897,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -905,24 +947,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -960,7 +1012,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -994,6 +1046,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1028,9 +1081,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1203,14 +1257,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1224,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1240,7 +1294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>27</v>
@@ -1295,7 +1349,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1309,7 +1363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1377,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1337,7 +1391,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1348,7 +1402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1356,7 +1410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1370,7 +1424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,7 +1435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1395,7 +1449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,7 +1491,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1451,7 +1505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1471,14 +1525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1492,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1516,7 +1570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1578,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1548,7 +1602,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>73</v>
@@ -1563,7 +1617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1631,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1645,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1605,7 +1659,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1616,7 +1670,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +1678,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1638,7 +1692,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1649,7 +1703,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1663,7 +1717,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1677,7 +1731,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1691,7 +1745,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1705,7 +1759,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1719,7 +1773,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,14 +1793,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="166" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1756,40 +1812,82 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1797,7 +1895,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1805,15 +1903,16 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>119</v>
@@ -1824,8 +1923,14 @@
       <c r="D9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="J9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1838,8 +1943,29 @@
       <c r="D10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="H10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10">
+        <f>((H10-180994)/3116110)*1000</f>
+        <v>8.9293766908100203</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:N10" si="0">((I10-180994)/3116110)*1000</f>
+        <v>-0.40487980206090102</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>3.4545603332359924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1852,8 +1978,26 @@
       <c r="D11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="H11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11">
+        <f>((H11-180994)/3116110)*1000</f>
+        <v>-7.3377448164538484</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M12" si="1">((I11-180994)/3116110)*1000</f>
+        <v>-16.630183145010928</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N12" si="2">((J11-180994)/3116110)*1000</f>
+        <v>-58.083315415694564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1867,7 +2011,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1878,15 +2022,36 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14">
+        <f>((H14-180994)/3116110)*1000</f>
+        <v>31.248226153762214</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M15" si="3">((I14-180994)/3116110)*1000</f>
+        <v>91.87278048592637</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N15" si="4">((J14-180994)/3116110)*1000</f>
+        <v>108.55221413878201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1899,8 +2064,29 @@
       <c r="D15" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15">
+        <f>((H15-180994)/3116110)*1000</f>
+        <v>35.863198025743628</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>24.174422597405098</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>92.752418881233325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1911,7 +2097,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1925,7 +2111,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1939,7 +2125,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1953,7 +2139,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1967,7 +2153,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1981,7 +2167,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2001,14 +2187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2022,7 +2208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2216,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2224,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2046,7 +2232,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2054,7 +2240,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2248,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2070,7 +2256,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2264,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>164</v>
@@ -2093,7 +2279,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2107,7 +2293,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2121,7 +2307,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2135,7 +2321,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2146,7 +2332,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2340,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2168,7 +2354,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2179,7 +2365,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2193,7 +2379,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2393,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2221,7 +2407,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2235,7 +2421,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2249,7 +2435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2269,14 +2455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2287,7 +2473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2481,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2303,7 +2489,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2311,7 +2497,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2319,7 +2505,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2327,7 +2513,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2335,7 +2521,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2343,7 +2529,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>210</v>
@@ -2355,7 +2541,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2369,7 +2555,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2569,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2397,7 +2583,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2408,7 +2594,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2422,7 +2608,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2442,14 +2628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2463,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2471,7 +2657,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2479,7 +2665,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2487,7 +2673,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2495,7 +2681,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2503,7 +2689,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2511,7 +2697,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2519,7 +2705,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>237</v>
@@ -2534,7 +2720,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2548,7 +2734,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2562,7 +2748,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2576,7 +2762,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2587,7 +2773,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2595,7 +2781,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2609,7 +2795,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2620,7 +2806,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2634,7 +2820,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2834,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2662,7 +2848,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2676,7 +2862,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2690,7 +2876,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
